--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>876.2999877929688</v>
+        <v>879.9000244140625</v>
       </c>
       <c r="D2" t="n">
-        <v>169100</v>
+        <v>289200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D4" t="n">
-        <v>109600</v>
+        <v>138800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D5" t="n">
-        <v>672200</v>
+        <v>861700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,16 +574,62 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>463.5</v>
       </c>
       <c r="D6" t="n">
-        <v>144800</v>
+        <v>1285800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>113</v>
+      </c>
+      <c r="D7" t="n">
+        <v>157300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>8209</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>396</v>
+      </c>
+      <c r="D8" t="n">
+        <v>518100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>879.9000244140625</v>
+        <v>875.5</v>
       </c>
       <c r="D2" t="n">
-        <v>289200</v>
+        <v>389000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>265A</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>911</v>
+        <v>397</v>
       </c>
       <c r="D3" t="n">
-        <v>151900</v>
+        <v>117300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>264A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="D4" t="n">
-        <v>138800</v>
+        <v>121400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>265A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>468</v>
+        <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>861700</v>
+        <v>151900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>463.5</v>
+        <v>537</v>
       </c>
       <c r="D6" t="n">
-        <v>1285800</v>
+        <v>170800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>2936</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>475</v>
       </c>
       <c r="D7" t="n">
-        <v>157300</v>
+        <v>1031000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,246 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="D8" t="n">
-        <v>518100</v>
+        <v>159900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>514</v>
+      </c>
+      <c r="D9" t="n">
+        <v>135800</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>133300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>4902</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1776500</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>852</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1130000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6493</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>390</v>
+      </c>
+      <c r="D13" t="n">
+        <v>216900</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>113</v>
+      </c>
+      <c r="D14" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>945</v>
+      </c>
+      <c r="D15" t="n">
+        <v>441400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8209</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>399</v>
+      </c>
+      <c r="D16" t="n">
+        <v>561100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>736.4000244140625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>732000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>741</v>
+      </c>
+      <c r="D18" t="n">
+        <v>128200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>875.5</v>
+        <v>877.7999877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>389000</v>
+        <v>687900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D3" t="n">
-        <v>117300</v>
+        <v>284900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D4" t="n">
-        <v>121400</v>
+        <v>195400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>151900</v>
+        <v>197700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D6" t="n">
-        <v>170800</v>
+        <v>264700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D7" t="n">
-        <v>1031000</v>
+        <v>1206500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D8" t="n">
-        <v>159900</v>
+        <v>296300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D9" t="n">
-        <v>135800</v>
+        <v>184700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>501</v>
+        <v>982</v>
       </c>
       <c r="D10" t="n">
-        <v>133300</v>
+        <v>197300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>463.7000122070312</v>
+        <v>499</v>
       </c>
       <c r="D11" t="n">
-        <v>1776500</v>
+        <v>178500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>852</v>
+        <v>461.8999938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>1130000</v>
+        <v>2990400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>390</v>
+        <v>839</v>
       </c>
       <c r="D13" t="n">
-        <v>216900</v>
+        <v>1451000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="D14" t="n">
-        <v>168700</v>
+        <v>270800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>945</v>
+        <v>113</v>
       </c>
       <c r="D15" t="n">
-        <v>441400</v>
+        <v>179100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="D16" t="n">
-        <v>561100</v>
+        <v>102800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>736.4000244140625</v>
+        <v>944</v>
       </c>
       <c r="D17" t="n">
-        <v>732000</v>
+        <v>603100</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,62 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>741</v>
+        <v>395</v>
       </c>
       <c r="D18" t="n">
-        <v>128200</v>
+        <v>584700</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>738</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1469300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>740</v>
+      </c>
+      <c r="D20" t="n">
+        <v>189300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D8" t="n">
-        <v>296300</v>
+        <v>184700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>510</v>
+        <v>982</v>
       </c>
       <c r="D9" t="n">
-        <v>184700</v>
+        <v>197300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>982</v>
+        <v>499</v>
       </c>
       <c r="D10" t="n">
-        <v>197300</v>
+        <v>178500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>499</v>
+        <v>461.8999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>178500</v>
+        <v>2990400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>461.8999938964844</v>
+        <v>390</v>
       </c>
       <c r="D12" t="n">
-        <v>2990400</v>
+        <v>270800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>839</v>
+        <v>113</v>
       </c>
       <c r="D13" t="n">
-        <v>1451000</v>
+        <v>179100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>390</v>
+        <v>254</v>
       </c>
       <c r="D14" t="n">
-        <v>270800</v>
+        <v>102800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>944</v>
       </c>
       <c r="D15" t="n">
-        <v>179100</v>
+        <v>603100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>254</v>
+        <v>395</v>
       </c>
       <c r="D16" t="n">
-        <v>102800</v>
+        <v>584700</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>9505</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>944</v>
+        <v>738</v>
       </c>
       <c r="D17" t="n">
-        <v>603100</v>
+        <v>1469300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>9517</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,62 +850,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>395</v>
+        <v>740</v>
       </c>
       <c r="D18" t="n">
-        <v>584700</v>
+        <v>189300</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>9505</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>738</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1469300</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>9517</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>740</v>
-      </c>
-      <c r="D20" t="n">
-        <v>189300</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D8" t="n">
-        <v>184700</v>
+        <v>296300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>982</v>
+        <v>510</v>
       </c>
       <c r="D9" t="n">
-        <v>197300</v>
+        <v>184700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>499</v>
+        <v>982</v>
       </c>
       <c r="D10" t="n">
-        <v>178500</v>
+        <v>197300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>461.8999938964844</v>
+        <v>499</v>
       </c>
       <c r="D11" t="n">
-        <v>2990400</v>
+        <v>178500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>390</v>
+        <v>461.8999938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>270800</v>
+        <v>2990400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113</v>
+        <v>839</v>
       </c>
       <c r="D13" t="n">
-        <v>179100</v>
+        <v>1451000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>254</v>
+        <v>390</v>
       </c>
       <c r="D14" t="n">
-        <v>102800</v>
+        <v>270800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>944</v>
+        <v>113</v>
       </c>
       <c r="D15" t="n">
-        <v>603100</v>
+        <v>179100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="D16" t="n">
-        <v>584700</v>
+        <v>102800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="D17" t="n">
-        <v>1469300</v>
+        <v>603100</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,62 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>740</v>
+        <v>395</v>
       </c>
       <c r="D18" t="n">
-        <v>189300</v>
+        <v>584700</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>738</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1469300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>740</v>
+      </c>
+      <c r="D20" t="n">
+        <v>189300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D8" t="n">
-        <v>296300</v>
+        <v>184700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>510</v>
+        <v>982</v>
       </c>
       <c r="D9" t="n">
-        <v>184700</v>
+        <v>197300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>982</v>
+        <v>499</v>
       </c>
       <c r="D10" t="n">
-        <v>197300</v>
+        <v>178500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>499</v>
+        <v>461.8999938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>178500</v>
+        <v>2990400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>461.8999938964844</v>
+        <v>839</v>
       </c>
       <c r="D12" t="n">
-        <v>2990400</v>
+        <v>1451000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>839</v>
+        <v>390</v>
       </c>
       <c r="D13" t="n">
-        <v>1451000</v>
+        <v>270800</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>390</v>
+        <v>113</v>
       </c>
       <c r="D14" t="n">
-        <v>270800</v>
+        <v>179100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="D15" t="n">
-        <v>179100</v>
+        <v>102800</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>254</v>
+        <v>944</v>
       </c>
       <c r="D16" t="n">
-        <v>102800</v>
+        <v>603100</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>944</v>
+        <v>395</v>
       </c>
       <c r="D17" t="n">
-        <v>603100</v>
+        <v>584700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>9505</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>395</v>
+        <v>738</v>
       </c>
       <c r="D18" t="n">
-        <v>584700</v>
+        <v>1469300</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>9517</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,39 +873,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D19" t="n">
-        <v>1469300</v>
+        <v>189300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>9517</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>740</v>
-      </c>
-      <c r="D20" t="n">
-        <v>189300</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/18/parabolic.xlsx
+++ b/parabolic/2025/07/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D8" t="n">
-        <v>184700</v>
+        <v>296300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3920</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>982</v>
+        <v>510</v>
       </c>
       <c r="D9" t="n">
-        <v>197300</v>
+        <v>184700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>499</v>
+        <v>982</v>
       </c>
       <c r="D10" t="n">
-        <v>178500</v>
+        <v>197300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>461.8999938964844</v>
+        <v>499</v>
       </c>
       <c r="D11" t="n">
-        <v>2990400</v>
+        <v>178500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>839</v>
+        <v>461.8999938964844</v>
       </c>
       <c r="D12" t="n">
-        <v>1451000</v>
+        <v>2990400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>390</v>
+        <v>839</v>
       </c>
       <c r="D13" t="n">
-        <v>270800</v>
+        <v>1451000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>6493</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="D14" t="n">
-        <v>179100</v>
+        <v>270800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="D15" t="n">
-        <v>102800</v>
+        <v>179100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>944</v>
+        <v>254</v>
       </c>
       <c r="D16" t="n">
-        <v>603100</v>
+        <v>102800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>395</v>
+        <v>944</v>
       </c>
       <c r="D17" t="n">
-        <v>584700</v>
+        <v>603100</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>738</v>
+        <v>395</v>
       </c>
       <c r="D18" t="n">
-        <v>1469300</v>
+        <v>584700</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>9505</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,16 +873,39 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D19" t="n">
-        <v>189300</v>
+        <v>1469300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>740</v>
+      </c>
+      <c r="D20" t="n">
+        <v>189300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
